--- a/Planilha_de_planejamento_de_testes.xlsx
+++ b/Planilha_de_planejamento_de_testes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\testeMock\automatizados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CC1C69-6DEA-462F-AF38-068733EDCC16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE978E14-C33E-4AFB-8B14-F2768F03BA53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>Ord</t>
   </si>
@@ -103,16 +103,7 @@
     <t>Deve fechar a tela de cadastro de produtos ao clicar no botão sair</t>
   </si>
   <si>
-    <t>Suesso</t>
-  </si>
-  <si>
     <t>Deve sair da mensagem de erro ao clicar no ícone X</t>
-  </si>
-  <si>
-    <t>Cadastrar produto com campo vazio</t>
-  </si>
-  <si>
-    <t>Ao clicar no botão Salvar deve fechar a tela e salvar na tabela.</t>
   </si>
   <si>
     <t>Deve validar que todos os campos obrigatórios foram preenchidos</t>
@@ -124,14 +115,20 @@
     <t>Sucesso</t>
   </si>
   <si>
-    <t>Deve permitir a exclusão de um produto da tabela</t>
+    <t>Cadastrar produto com Campos Preenchidos</t>
+  </si>
+  <si>
+    <t>Não deve cadastrar se os campos não tiverem preenchidos</t>
+  </si>
+  <si>
+    <t>Deve Fechar o Modal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -143,6 +140,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -198,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -237,6 +240,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3749,8 +3756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3835,7 +3842,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -3843,21 +3850,21 @@
         <v>5</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B11" s="15">
         <v>6</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -3865,10 +3872,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -3876,10 +3883,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -3887,21 +3894,21 @@
         <v>9</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B15" s="16">
         <v>10</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="16" t="s">
+      <c r="C15" s="19" t="s">
         <v>31</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -6861,6 +6868,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>